--- a/First Semester Report/Gantt Chart.xlsx
+++ b/First Semester Report/Gantt Chart.xlsx
@@ -332,6 +332,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,12 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -542,10 +542,10 @@
                   <c:v>43353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43364</c:v>
+                  <c:v>43366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43364</c:v>
+                  <c:v>43366</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43388</c:v>
@@ -1518,7 +1518,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2266,13 +2266,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>65809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2652,8 +2652,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2674,24 +2674,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -2748,15 +2748,15 @@
         <f>C5</f>
         <v>43297</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3181,11 +3181,11 @@
         <v>23</v>
       </c>
       <c r="C21" s="9">
-        <v>43364</v>
+        <v>43366</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="2"/>
-        <v>43403</v>
+        <v>43405</v>
       </c>
       <c r="E21" s="10">
         <v>40</v>
@@ -3207,11 +3207,11 @@
         <v>31</v>
       </c>
       <c r="C22" s="3">
-        <v>43364</v>
+        <v>43366</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="2"/>
-        <v>43403</v>
+        <v>43405</v>
       </c>
       <c r="E22" s="6">
         <v>40</v>
@@ -3237,10 +3237,10 @@
       </c>
       <c r="D23" s="18">
         <f t="shared" si="2"/>
-        <v>43399</v>
+        <v>43405</v>
       </c>
       <c r="E23" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="G23" s="19">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3258,7 +3258,7 @@
       <c r="B24" s="21"/>
       <c r="C24" s="3"/>
       <c r="D24" s="18" t="str">
-        <f t="shared" ref="D5:D29" si="3">IF(ISBLANK(E24),"",E24+C24)</f>
+        <f t="shared" ref="D24:D29" si="3">IF(ISBLANK(E24),"",E24+C24)</f>
         <v/>
       </c>
       <c r="E24" s="6"/>
@@ -3382,18 +3382,18 @@
       <c r="J31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="26" t="s">
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
     </row>
     <row r="32" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -3403,18 +3403,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25" t="s">
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
     </row>
     <row r="33" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>

--- a/First Semester Report/Gantt Chart.xlsx
+++ b/First Semester Report/Gantt Chart.xlsx
@@ -110,12 +110,6 @@
     <t>Implement Neural Network on a Sensor Node</t>
   </si>
   <si>
-    <t>Implement and Train Neural Network on PC Using Sensor Data</t>
-  </si>
-  <si>
-    <t>Design and Implement and Simulate Neural Network on PC Using Dummy Data</t>
-  </si>
-  <si>
     <t>Background Study on Feed-Forward Neural Networks</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>Practice Oral for Final Exam</t>
+  </si>
+  <si>
+    <t>Design and Implement and Simulate Neural Network</t>
+  </si>
+  <si>
+    <t>Implement and Train Neural Network on PC</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
                   <c:v>Background Study on Neural Network Trainnig Methods</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design and Implement and Simulate Neural Network on PC Using Dummy Data</c:v>
+                  <c:v>Design and Implement and Simulate Neural Network</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Implement and Train Neural Network on PC Using Sensor Data</c:v>
+                  <c:v>Implement and Train Neural Network on PC</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Implement Neural Network on a Sensor Node</c:v>
@@ -937,10 +937,10 @@
                   <c:v>Background Study on Neural Network Trainnig Methods</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design and Implement and Simulate Neural Network on PC Using Dummy Data</c:v>
+                  <c:v>Design and Implement and Simulate Neural Network</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Implement and Train Neural Network on PC Using Sensor Data</c:v>
+                  <c:v>Implement and Train Neural Network on PC</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Implement Neural Network on a Sensor Node</c:v>
@@ -1431,10 +1431,10 @@
                   <c:v>Background Study on Neural Network Trainnig Methods</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design and Implement and Simulate Neural Network on PC Using Dummy Data</c:v>
+                  <c:v>Design and Implement and Simulate Neural Network</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Implement and Train Neural Network on PC Using Sensor Data</c:v>
+                  <c:v>Implement and Train Neural Network on PC</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Implement Neural Network on a Sensor Node</c:v>
@@ -1589,7 +1589,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1615,7 +1615,7 @@
         <c:axId val="-2095144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43418"/>
+          <c:max val="43410"/>
           <c:min val="43297"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1634,7 +1634,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1652,7 +1652,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2269,8 +2269,8 @@
       <xdr:rowOff>65809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>277091</xdr:rowOff>
     </xdr:to>
@@ -2652,8 +2652,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>43325</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>43325</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
         <v>43332</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>43339</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <v>43366</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <v>43388</v>

--- a/First Semester Report/Gantt Chart.xlsx
+++ b/First Semester Report/Gantt Chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Start Date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Implement and Train Neural Network on PC</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
   </si>
 </sst>
 </file>
@@ -364,9 +367,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFB86FD7"/>
       <color rgb="FF62BED6"/>
       <color rgb="FFC24B39"/>
-      <color rgb="FFB86FD7"/>
       <color rgb="FF528E78"/>
       <color rgb="FF528E77"/>
       <color rgb="FF72C9DE"/>
@@ -426,7 +429,7 @@
             <c:strRef>
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>First Semester Report</c:v>
                 </c:pt>
@@ -483,6 +486,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Practice Oral for Final Exam</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Final Exam</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -494,7 +500,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>43297</c:v>
+                  <c:v>43283</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43304</c:v>
@@ -549,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,7 +911,7 @@
             <c:strRef>
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>First Semester Report</c:v>
                 </c:pt>
@@ -959,6 +968,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Practice Oral for Final Exam</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Final Exam</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -970,7 +982,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -997,10 +1009,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1018,7 +1030,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.9500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1396,7 +1408,7 @@
             <c:strRef>
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>First Semester Report</c:v>
                 </c:pt>
@@ -1453,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Practice Oral for Final Exam</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Final Exam</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1464,7 +1479,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -1491,10 +1506,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -1512,7 +1527,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>37.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>39</c:v>
@@ -1521,7 +1536,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1615,8 +1630,8 @@
         <c:axId val="-2095144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43410"/>
-          <c:min val="43297"/>
+          <c:max val="43437"/>
+          <c:min val="43283"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2269,8 +2284,8 @@
       <xdr:rowOff>65809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>277091</xdr:rowOff>
     </xdr:to>
@@ -2652,8 +2667,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2746,7 +2761,7 @@
       </c>
       <c r="K4" s="12">
         <f>C5</f>
-        <v>43297</v>
+        <v>43283</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>13</v>
@@ -2763,25 +2778,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>43297</v>
+        <v>43283</v>
       </c>
       <c r="D5" s="18">
         <f>IF(ISBLANK(E5),"",E5+C5-1)</f>
         <v>43301</v>
       </c>
       <c r="E5" s="8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" ref="F5:F29" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" ref="G5:G29" si="1">IF(F5="","",(D5-C5)-F5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,14 +3050,14 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,22 +3270,30 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="18" t="str">
+      <c r="B24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43405</v>
+      </c>
+      <c r="D24" s="18">
         <f t="shared" ref="D24:D29" si="3">IF(ISBLANK(E24),"",E24+C24)</f>
-        <v/>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="19" t="str">
+        <v>43434</v>
+      </c>
+      <c r="E24" s="6">
+        <v>29</v>
+      </c>
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
